--- a/MainTop/10.07.2025 новые/new_print_sorted.xlsx
+++ b/MainTop/10.07.2025 новые/new_print_sorted.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -965,7 +965,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Термонаклейка Роза с бутоном акварель</t>
+          <t>Термонаклейка Медуза в очках и с змеями</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
@@ -985,7 +985,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>Термонаклейка Рука жест рок металл</t>
+          <t>Термонаклейка Роза с бутоном акварель</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -1005,7 +1005,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка в золотых трещинах</t>
+          <t>Термонаклейка Рука жест рок металл</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
@@ -1025,7 +1025,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>Термонаклейка Не буди лихо пока тихо</t>
+          <t>Термонаклейка Девушка в золотых трещинах</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -1045,7 +1045,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>Термонаклейка Треснувшая античная скульптура</t>
+          <t>Термонаклейка Не буди лихо пока тихо</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -1065,7 +1065,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Термонаклейка Яркий цветок акварель</t>
+          <t>Термонаклейка Треснувшая античная скульптура</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -1085,7 +1085,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>Термонаклейка Три фламинго у воды лево</t>
+          <t>Термонаклейка Яркий цветок акварель</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -1105,7 +1105,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>Термонаклейка Египетская кошка в золоте</t>
+          <t>Термонаклейка Три фламинго у воды лево</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -1125,7 +1125,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>Термонаклейка Чёрная кошка и луна</t>
+          <t>Термонаклейка Египетская кошка в золоте</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -1145,7 +1145,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>Термонаклейка Итальянская набережная</t>
+          <t>Термонаклейка Чёрная кошка и луна</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -1165,18 +1165,38 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
+          <t>Термонаклейка Итальянская набережная</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>10.07.2025 новые</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
           <t>Термонаклейка Уточка с полотенцем</t>
         </is>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="B38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>10.07.2025 новые</t>
         </is>
